--- a/Test excel/indikator.xlsx
+++ b/Test excel/indikator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LPMP\Test excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LPMPS\Test excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF2A29-CA07-48D0-9BB1-24A657E8B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7104B86E-6128-43D2-A22A-378DFC8A90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2438C3B-F887-4A56-A9C5-98676919A599}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2438C3B-F887-4A56-A9C5-98676919A599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>ads</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>nomor indikator</t>
+  </si>
+  <si>
+    <t>nama indikator</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perangkat pembelajaran sesuai rumusan kompetensi lulusan </t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Kurikulum Tingkat Satuan Pendidikan dikembangkan sesuai prosedur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,52 +401,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FCECDB-6FD4-47A7-BFFD-35060EF95594}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>2021</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2021</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
